--- a/sn.xlsx
+++ b/sn.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sn" sheetId="1" r:id="rId1"/>
+    <sheet name="overlapping" sheetId="2" r:id="rId2"/>
+    <sheet name="border" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="19">
   <si>
     <t>o</t>
   </si>
@@ -31,6 +31,48 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>N+2</t>
+  </si>
+  <si>
+    <t>N+1</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N+3</t>
+  </si>
+  <si>
+    <t>2N+4</t>
+  </si>
+  <si>
+    <t>(N+2)^2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S 2</t>
+  </si>
+  <si>
+    <t>S 3</t>
+  </si>
+  <si>
+    <t>S 4</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -67,7 +109,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +164,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -131,11 +221,304 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +581,177 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,13 +1057,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AE55" sqref="AE55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="28" width="3.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:28" ht="17.25" x14ac:dyDescent="0.25">
@@ -520,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -541,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1</v>
@@ -556,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
@@ -621,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>1</v>
@@ -642,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>1</v>
@@ -651,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>1</v>
@@ -669,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>1</v>
@@ -681,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>1</v>
@@ -731,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>1</v>
@@ -740,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>1</v>
@@ -755,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>1</v>
@@ -767,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>1</v>
@@ -785,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="Z7" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>1</v>
@@ -844,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>1</v>
@@ -853,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>1</v>
@@ -868,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>1</v>
@@ -886,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="X9" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>1</v>
@@ -939,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
@@ -966,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1</v>
@@ -975,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>1</v>
@@ -987,13 +1543,13 @@
         <v>1</v>
       </c>
       <c r="T11" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V11" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>1</v>
@@ -1005,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>1</v>
@@ -1052,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>1</v>
@@ -1079,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>1</v>
@@ -1088,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="R13" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>1</v>
@@ -1112,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="Z13" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>1</v>
@@ -1162,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
@@ -1177,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1</v>
@@ -1192,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>1</v>
@@ -1210,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="X15" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Z15" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>1</v>
@@ -1263,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>1</v>
@@ -1278,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>1</v>
@@ -1287,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>1</v>
@@ -1506,8 +2062,8 @@
       <c r="AB22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC22" s="17">
-        <v>2</v>
+      <c r="AC22" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -1618,8 +2174,8 @@
       <c r="AB24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC24" s="17">
-        <v>3</v>
+      <c r="AC24" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -1733,8 +2289,8 @@
       <c r="AB26" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC26" s="17">
-        <v>4</v>
+      <c r="AC26" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -2358,8 +2914,8 @@
       <c r="AB40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC40" s="17">
-        <v>2</v>
+      <c r="AC40" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -2470,8 +3026,8 @@
       <c r="AB42" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC42" s="17">
-        <v>3</v>
+      <c r="AC42" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -2585,8 +3141,8 @@
       <c r="AB44" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC44" s="17">
-        <v>4</v>
+      <c r="AC44" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -3210,8 +3766,8 @@
       <c r="AB58" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC58" s="17">
-        <v>2</v>
+      <c r="AC58" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -3435,8 +3991,8 @@
       <c r="AB62" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AC62" s="17">
-        <v>4</v>
+      <c r="AC62" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
@@ -3881,24 +4437,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="7" width="3.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="9" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+      <c r="C15" s="59">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59">
+        <v>3</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="58"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="42"/>
+      <c r="C27" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="42"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="42"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="42"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="42"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="42"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="73"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="75"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="75"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="75"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="75"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="75"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="73"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="73"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
